--- a/Paragon Printer Parameters.xlsx
+++ b/Paragon Printer Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Documents\Development\paragon-printer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B67FD1-F775-4870-A1EC-D31160181A92}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB34D77-E008-4D88-9930-924FC6009E1A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13950" yWindow="2970" windowWidth="12405" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
   <si>
     <t>Dimension</t>
   </si>
@@ -57,10 +57,28 @@
     <t>in</t>
   </si>
   <si>
-    <t>twenty</t>
-  </si>
-  <si>
     <t>tower_height</t>
+  </si>
+  <si>
+    <t>extrusion_dim</t>
+  </si>
+  <si>
+    <t>top_sheet_thickness</t>
+  </si>
+  <si>
+    <t>ceiling_height</t>
+  </si>
+  <si>
+    <t>ceiling_width</t>
+  </si>
+  <si>
+    <t>rail_width</t>
+  </si>
+  <si>
+    <t>rail_height</t>
+  </si>
+  <si>
+    <t>rail_length</t>
   </si>
 </sst>
 </file>
@@ -390,12 +408,12 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -451,7 +469,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -462,41 +480,77 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
+        <v>500</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>400</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
         <v>300</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>4</v>
       </c>
